--- a/biology/Microbiologie/Sporulation/Sporulation.xlsx
+++ b/biology/Microbiologie/Sporulation/Sporulation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La sporulation est la formation et la libération de spores, qui se trouvent dans les sporanges, ainsi que la reproduction par spores. 
 Ce terme est plutôt réservé à la production des spores végétatives ou conidies.
@@ -514,7 +526,9 @@
           <t>Les phases de la sporulation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>La sporulation comprend généralement 7 phases :
 la condensation de la masse nucléaire ;
@@ -551,10 +565,12 @@
           <t>Chez les champignons</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les spores de la plupart des  champignons, qu'elles soient issues de la reproduction asexuée ou de la reproduction sexuelle ou sporangiospores sont activement dispersées par éjection forcée hors des structures reproductrices. Cette éjection déclenchée par les conditions météorologiques ou par une action mécanique (cas des Vesses-de-loup) assure la dissémination des spores, parfois sur de longues distances. Il est possible de récolter un amas de spores sous un carpophore, la sporée, pour en observer exactement la couleur.
-De nombreux champignons donc des mécanismes et caractères physiologiques spécialisés qui concernent la spore ou l'organe de production des spores (ex : hydrophobines permettant l'éjection de spores). La structure de l'asque et l'accumulation de osmolytes dans les fluides des asques contribue chez certaines espèces (Ascomycota) à une véritable décharge explosive des ascospores dans l'air[1]. Le rejet forcé de spores simples dites dans ce cas ballistospores  implique la formation d'une petite goutte d'eau (chute de Buller), qui peut expulser une spore hydrophobe comme un projectile avec une accélération initiale de plus de 10 000 g [2].
+De nombreux champignons donc des mécanismes et caractères physiologiques spécialisés qui concernent la spore ou l'organe de production des spores (ex : hydrophobines permettant l'éjection de spores). La structure de l'asque et l'accumulation de osmolytes dans les fluides des asques contribue chez certaines espèces (Ascomycota) à une véritable décharge explosive des ascospores dans l'air. Le rejet forcé de spores simples dites dans ce cas ballistospores  implique la formation d'une petite goutte d'eau (chute de Buller), qui peut expulser une spore hydrophobe comme un projectile avec une accélération initiale de plus de 10 000 g .
 Dans quelques cas, le champignon est souterrain (ex truffe) : il doit alors faire appel à un animal (écureuil, sanglier) pour disperser ses spores.
 D'autres alternatives existent, impliquant des actions mécaniques (expulsion par compression chez les vesces).
 D'autres champignons attirent les insectes par une couleur et une odeur adaptée (des mouches souvent qui apprécient les odeurs putrides).</t>
